--- a/data/trans_orig/PRIV21_15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de privacion socioeconómica en País Vasco</t>
+          <t>Índice de privacion socioeconómica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PRIV21_15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Estudios-trans_orig.xlsx
@@ -731,32 +731,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29034</t>
+          <t>27906</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25312</t>
+          <t>24400</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33558</t>
+          <t>31687</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -766,32 +766,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38875</t>
+          <t>35448</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34621</t>
+          <t>31323</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>44300</t>
+          <t>40075</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -801,32 +801,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>67910</t>
+          <t>63354</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>57589</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>74109</t>
+          <t>69090</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>33,6%</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20266</t>
+          <t>17526</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16605</t>
+          <t>14560</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23782</t>
+          <t>21011</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -877,32 +877,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33021</t>
+          <t>30302</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28737</t>
+          <t>26482</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37718</t>
+          <t>34577</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -912,32 +912,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>53287</t>
+          <t>47828</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>47812</t>
+          <t>42869</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>59081</t>
+          <t>52658</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -953,32 +953,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18475</t>
+          <t>17253</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>14417</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22013</t>
+          <t>20540</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -988,32 +988,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26880</t>
+          <t>23191</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22548</t>
+          <t>19804</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31169</t>
+          <t>26756</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1023,32 +1023,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>45355</t>
+          <t>40444</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>39761</t>
+          <t>35824</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>50973</t>
+          <t>45329</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13915</t>
+          <t>12942</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11020</t>
+          <t>10202</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17673</t>
+          <t>15856</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1099,32 +1099,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17205</t>
+          <t>18351</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14015</t>
+          <t>15306</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20735</t>
+          <t>22303</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1134,32 +1134,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>31120</t>
+          <t>31294</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>26828</t>
+          <t>26814</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>35943</t>
+          <t>35862</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>17,44%</t>
         </is>
       </c>
     </row>
@@ -1175,32 +1175,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7298</t>
+          <t>7933</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>5795</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9916</t>
+          <t>10434</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1210,32 +1210,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12230</t>
+          <t>14750</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9778</t>
+          <t>11979</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15425</t>
+          <t>18036</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1245,32 +1245,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>19528</t>
+          <t>22684</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>16145</t>
+          <t>18642</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>23348</t>
+          <t>27000</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -1288,17 +1288,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>122043</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>217200</t>
+          <t>205603</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1403,32 +1403,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>101190</t>
+          <t>101354</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93244</t>
+          <t>93663</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>108849</t>
+          <t>108896</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1438,32 +1438,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95999</t>
+          <t>95178</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88196</t>
+          <t>87670</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>104094</t>
+          <t>103036</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1473,32 +1473,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>197189</t>
+          <t>196531</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>186855</t>
+          <t>185621</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>209382</t>
+          <t>208092</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -1514,32 +1514,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>112193</t>
+          <t>100453</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>104137</t>
+          <t>92898</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>120532</t>
+          <t>107908</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1549,32 +1549,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>102809</t>
+          <t>94613</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95105</t>
+          <t>87121</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>111809</t>
+          <t>101852</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1584,32 +1584,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>215002</t>
+          <t>195066</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>203259</t>
+          <t>185260</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>226650</t>
+          <t>205390</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1625,32 +1625,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90111</t>
+          <t>89646</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82973</t>
+          <t>81253</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96887</t>
+          <t>97282</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1660,32 +1660,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84804</t>
+          <t>80937</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>77341</t>
+          <t>73958</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>93217</t>
+          <t>88156</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1695,32 +1695,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>174915</t>
+          <t>170583</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>165033</t>
+          <t>159540</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>186267</t>
+          <t>181010</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83237</t>
+          <t>87289</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76411</t>
+          <t>79568</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90550</t>
+          <t>94669</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1771,32 +1771,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79183</t>
+          <t>88241</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72561</t>
+          <t>80907</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>87069</t>
+          <t>95963</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>162420</t>
+          <t>175530</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>152638</t>
+          <t>165505</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>172528</t>
+          <t>186683</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>20,49%</t>
         </is>
       </c>
     </row>
@@ -1847,32 +1847,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>68064</t>
+          <t>85627</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>61624</t>
+          <t>78927</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74327</t>
+          <t>93919</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71478</t>
+          <t>87957</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>64766</t>
+          <t>79513</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>77759</t>
+          <t>95563</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1917,32 +1917,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>139542</t>
+          <t>173584</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>129777</t>
+          <t>162319</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>149257</t>
+          <t>184461</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>20,24%</t>
         </is>
       </c>
     </row>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1995,17 +1995,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,32 +2075,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19416</t>
+          <t>20085</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15845</t>
+          <t>16652</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23150</t>
+          <t>24227</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2110,32 +2110,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25862</t>
+          <t>27385</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21814</t>
+          <t>22729</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30391</t>
+          <t>31487</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2145,32 +2145,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>45278</t>
+          <t>47470</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40115</t>
+          <t>41991</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>51238</t>
+          <t>53356</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23040</t>
+          <t>23428</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19342</t>
+          <t>19572</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27246</t>
+          <t>26967</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29406</t>
+          <t>29650</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25252</t>
+          <t>25309</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33970</t>
+          <t>34396</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>52447</t>
+          <t>53079</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>47307</t>
+          <t>47570</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>58768</t>
+          <t>59811</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -2297,32 +2297,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27001</t>
+          <t>28607</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22767</t>
+          <t>24434</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31220</t>
+          <t>33405</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2332,32 +2332,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35385</t>
+          <t>40596</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>30527</t>
+          <t>35536</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>40020</t>
+          <t>46087</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2367,32 +2367,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>62386</t>
+          <t>69204</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>56538</t>
+          <t>62569</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>68774</t>
+          <t>77695</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -2408,32 +2408,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36662</t>
+          <t>40519</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32065</t>
+          <t>35258</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41607</t>
+          <t>45651</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51181</t>
+          <t>56368</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>45940</t>
+          <t>50757</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56298</t>
+          <t>62864</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>96887</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>80724</t>
+          <t>89593</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>94887</t>
+          <t>104783</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -2519,32 +2519,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>46368</t>
+          <t>63728</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41761</t>
+          <t>57411</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51361</t>
+          <t>69584</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2554,32 +2554,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>54063</t>
+          <t>75650</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48752</t>
+          <t>69339</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>59193</t>
+          <t>82778</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>100431</t>
+          <t>139379</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>93359</t>
+          <t>129614</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>108003</t>
+          <t>148355</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>36,54%</t>
         </is>
       </c>
     </row>
@@ -2632,17 +2632,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2702,17 +2702,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2747,32 +2747,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>149640</t>
+          <t>149344</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>139165</t>
+          <t>140456</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>159022</t>
+          <t>159775</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2782,32 +2782,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>160736</t>
+          <t>158011</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>150673</t>
+          <t>147847</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>172073</t>
+          <t>168834</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>310376</t>
+          <t>307355</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>295533</t>
+          <t>294555</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>324080</t>
+          <t>321847</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,13%</t>
         </is>
       </c>
     </row>
@@ -2858,32 +2858,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>155499</t>
+          <t>141407</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>146158</t>
+          <t>132047</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>165802</t>
+          <t>150765</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2893,32 +2893,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>165237</t>
+          <t>154565</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>155816</t>
+          <t>144818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>175768</t>
+          <t>163956</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>320736</t>
+          <t>295972</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>307659</t>
+          <t>281883</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>334884</t>
+          <t>310121</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -2969,32 +2969,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>135588</t>
+          <t>135506</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>127043</t>
+          <t>125679</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>144600</t>
+          <t>144702</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3004,32 +3004,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>147068</t>
+          <t>144725</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>137796</t>
+          <t>135218</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>157003</t>
+          <t>154746</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>282656</t>
+          <t>280231</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>269823</t>
+          <t>267813</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>297690</t>
+          <t>294988</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -3080,32 +3080,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>133815</t>
+          <t>140750</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>124410</t>
+          <t>131399</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>143593</t>
+          <t>150138</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3115,32 +3115,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>147569</t>
+          <t>162961</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>137833</t>
+          <t>153245</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>156310</t>
+          <t>173361</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3150,32 +3150,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>281383</t>
+          <t>303711</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>269638</t>
+          <t>290398</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>295601</t>
+          <t>318446</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,91%</t>
         </is>
       </c>
     </row>
@@ -3191,32 +3191,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>121730</t>
+          <t>157289</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>114042</t>
+          <t>146782</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>130630</t>
+          <t>168529</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3226,32 +3226,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>137770</t>
+          <t>178358</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>128225</t>
+          <t>167874</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>146762</t>
+          <t>190183</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3261,32 +3261,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>259500</t>
+          <t>335647</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>247471</t>
+          <t>320855</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>272162</t>
+          <t>351621</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>23,09%</t>
         </is>
       </c>
     </row>
@@ -3304,17 +3304,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3339,17 +3339,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
